--- a/biology/Botanique/Parc_et_ferme_de_La_Ville_Oger/Parc_et_ferme_de_La_Ville_Oger.xlsx
+++ b/biology/Botanique/Parc_et_ferme_de_La_Ville_Oger/Parc_et_ferme_de_La_Ville_Oger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de la Ville Oger est un parc public situé sur les communes de Saint-Brieuc et Trégueux, dans les Côtes-d'Armor, séparé par un cours d'eau nommé le Douvenant. Il dispose également d'une ferme ouverte au public, mais principalement éducative et culturelle pour les groupes scolaires. Une petite partie sert également de potager privé disponible à la vente aux habitants de Saint-Brieuc.
@@ -512,7 +524,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc se situe au sud-est de la commune de Saint-Brieuc et au nord de Trégueux. Il est traversé par un cours d'eau nommé « Le Douvenant », prenant sa source dans un square rue Marcel Proust (Saint-Brieuc) et rue d'Armor (Trégueux). Ce ruisseau permet la délimitation entre les deux communes puis celle de Saint-Brieuc et Langueux avant de se jeter dans la baie. Il est d'une longueur approximative de 5 500 m.
 </t>
@@ -543,9 +557,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Ferme de la Ville Oger</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est la dernière ferme située entre les communes de Saint-Brieuc et Trégueux encore en activité. Elle ce compose de sept bâtiments différents dont le principal fait deux étages. Les autres servent d'abris pour animaux ou de stockage de matériels.
 Accolée au bâtiment principal, une petite chapelle avec un clocheton était squattée vers la fin des années 1970 et se délabrera rapidement à cause d'un début d'incendie qui la rendra inutilisable et dangereuse. Cette chapelle n'était plus utilisée pour le culte et servait de remise.
